--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>金瑞快期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910097(苏艳辉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910101(孙悦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052927</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +113,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,18 +148,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -166,7 +202,7 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="start item "/>
-    <tableColumn id="6" name="password"/>
+    <tableColumn id="6" name="password" dataDxfId="0"/>
     <tableColumn id="2" name="group"/>
     <tableColumn id="3" name="shortcut"/>
     <tableColumn id="4" name="exchange"/>
@@ -461,16 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -481,7 +517,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -501,7 +537,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,7 +551,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>158249</v>
       </c>
       <c r="C3" t="s">
@@ -525,6 +561,43 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36.6" customHeight="1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>300427</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="37.799999999999997" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -536,6 +609,8 @@
   <oleObjects>
     <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025"/>
     <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1026"/>
+    <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1027"/>
+    <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1028"/>
   </oleObjects>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -82,15 +82,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>910096(苏艳利)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910097(苏艳辉)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910101(孙悦)</t>
+    <t>910096(苏艳利)medi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910097(苏艳辉)medi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910101(孙悦)medi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,10 +274,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1143000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -315,10 +315,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1143000</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -674,7 +674,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,47 +58,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>交易客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shfe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金瑞快期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910096(苏艳利)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shfe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金瑞快期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>910097(苏艳辉)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>910101(孙悦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>052927</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,11 +172,185 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1143000</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>361950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>523875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Package">
     <oleItems>
       <oleItem name="'" icon="1" preferPic="1"/>
@@ -186,10 +360,10 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Package">
     <oleItems>
-      <oleItem name="'" icon="1" preferPic="1"/>
+      <oleItem name="'" advise="1" preferPic="1"/>
     </oleItems>
   </oleLink>
 </externalLink>
@@ -197,9 +371,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20">
-    <filterColumn colId="1"/>
-  </autoFilter>
+  <autoFilter ref="A1:F20"/>
   <tableColumns count="6">
     <tableColumn id="1" name="start item "/>
     <tableColumn id="6" name="password" dataDxfId="0"/>
@@ -213,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -287,6 +459,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,6 +494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,24 +670,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,84 +721,181 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.2" customHeight="1">
+    <row r="3" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>158249</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="36.6" customHeight="1">
+    <row r="4" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>300427</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="37.799999999999997" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025"/>
-    <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1026"/>
-    <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1027"/>
-    <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1028"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1143000</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>361950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>523875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1143000</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>523875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1143000</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>523875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -633,12 +904,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>910101(孙悦)medi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910110(王栋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 0910</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +126,14 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +176,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -192,8 +211,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1143000</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
@@ -274,10 +293,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -315,10 +334,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -343,6 +362,42 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1085850" cy="476250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -671,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,6 +827,23 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -794,8 +866,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1143000</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>361950</xdr:rowOff>
               </to>
@@ -809,7 +881,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -829,12 +901,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -844,22 +916,22 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1143000</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>523875</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -869,17 +941,42 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1143000</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>523875</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>300910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shfe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910096(苏艳利)medi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,7 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30 0910</t>
+    <t>910210(付广超)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910211(周建东)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,8 +276,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1000125</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
@@ -263,47 +287,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -341,6 +324,47 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
@@ -367,14 +391,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1085850" cy="476250"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Object 5" hidden="1">
@@ -397,7 +426,89 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -726,19 +837,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -778,7 +889,7 @@
     </row>
     <row r="3" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>158249</v>
@@ -793,57 +904,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>300427</v>
+    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+    <row r="5" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>300427</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -881,7 +1026,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -891,8 +1036,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1000125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>523875</xdr:rowOff>
               </to>
@@ -901,37 +1046,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -951,12 +1071,62 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -968,15 +1138,40 @@
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -15,12 +15,15 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_Toc489950447" localSheetId="0">Sheet1!$A$10</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,27 +105,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>shfe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910096(苏艳利)medi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>910110(王栋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910097(苏艳辉)medi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>910210(付广超)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910211(周建东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄志平(113169)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910101(孙悦)medi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>910110(王栋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910210(付广超)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910211(周建东)</t>
+    <t>黄志和(910223)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +168,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -158,6 +178,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,6 +521,88 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -837,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,10 +1000,10 @@
     </row>
     <row r="3" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3">
-        <v>158249</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -923,7 +1034,7 @@
     </row>
     <row r="5" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>300427</v>
@@ -943,7 +1054,7 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
@@ -960,7 +1071,7 @@
     </row>
     <row r="7" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -977,7 +1088,7 @@
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -990,6 +1101,31 @@
       </c>
       <c r="F8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6">
+        <v>191011</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6">
+        <v>272817</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1172,6 +1308,56 @@
       </mc:Choice>
       <mc:Fallback>
         <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Toc489950447" localSheetId="0">Sheet1!$A$10</definedName>
+    <definedName name="_Toc489950447" localSheetId="0">Sheet1!$A$8</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>052927</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300910</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,27 +113,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>黄志平(113169)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910110(王栋)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>910097(苏艳辉)medi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>910210(付广超)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>910211(周建东)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄志平(113169)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910101(孙悦)medi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +152,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -214,24 +196,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -342,88 +323,6 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -465,13 +364,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -506,13 +405,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -547,13 +446,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -588,13 +487,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -647,8 +546,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F18" totalsRowShown="0">
+  <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
     <tableColumn id="1" name="start item "/>
     <tableColumn id="6" name="password" dataDxfId="0"/>
@@ -948,16 +847,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
@@ -968,7 +867,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -988,7 +887,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,10 +899,10 @@
     </row>
     <row r="3" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1016,35 +915,32 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3">
-        <v>300427</v>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
@@ -1053,78 +949,44 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5">
+        <v>191011</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="B8" s="5">
+        <v>272817</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6">
-        <v>191011</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6">
-        <v>272817</v>
-      </c>
-      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1187,56 +1049,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1027"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1028"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
         <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
@@ -1268,13 +1080,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>
@@ -1293,13 +1105,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>
@@ -1318,13 +1130,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>
@@ -1343,13 +1155,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,23 +113,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>910210(付广超)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>黄志平(113169)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>910211(周建东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄志和(910223)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910110(王栋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910210(付广超)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910211(周建东)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄志和(910223)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +850,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>191011</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5">
         <v>272817</v>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,24 +113,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>黄志和(910223)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910110(王栋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910210(付广超)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>910211(周建东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>黄志平(113169)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>910211(周建东)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄志和(910223)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910110(王栋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>zad200306</t>
   </si>
 </sst>
 </file>
@@ -847,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +919,7 @@
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -933,7 +936,7 @@
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -967,7 +970,7 @@
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5">
         <v>191011</v>
@@ -981,13 +984,21 @@
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <v>272817</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>21000000</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>zad200306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -853,7 +857,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,6 +1003,9 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1042,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1055,12 +1062,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1080,12 +1087,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1105,12 +1112,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1130,12 +1137,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1155,12 +1162,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1180,7 +1187,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/meditations/operation/start/start.xlsx
+++ b/meditations/operation/start/start.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">start item </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shfe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,34 +105,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>zad200306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910110(王栋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910210(付广超)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910211(周建东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄志平(113169)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄志和(910223)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周安东(21000000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>910096(苏艳利)medi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄志和(910223)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910110(王栋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910210(付广超)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910211(周建东)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄志平(113169)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zad200306</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +869,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,106 +918,112 @@
     </row>
     <row r="3" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>191011</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>272817</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>21000000</v>
+      <c r="A9" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1060,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1062,12 +1080,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1087,12 +1105,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1112,12 +1130,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1137,12 +1155,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1162,12 +1180,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1187,7 +1205,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
+        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
